--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna2-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna2-Epha1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H2">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I2">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J2">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.446352</v>
+        <v>3.086228</v>
       </c>
       <c r="N2">
-        <v>4.339055999999999</v>
+        <v>9.258683999999999</v>
       </c>
       <c r="O2">
-        <v>0.05318694539780245</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="P2">
-        <v>0.05318694539780244</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="Q2">
-        <v>1.783343820005333</v>
+        <v>7.383370475565333</v>
       </c>
       <c r="R2">
-        <v>16.050094380048</v>
+        <v>66.450334280088</v>
       </c>
       <c r="S2">
-        <v>0.008740219249534142</v>
+        <v>0.04274704342897715</v>
       </c>
       <c r="T2">
-        <v>0.008740219249534139</v>
+        <v>0.04274704342897714</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H3">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I3">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J3">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.619945333333333</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N3">
         <v>16.859836</v>
       </c>
       <c r="O3">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="P3">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="Q3">
-        <v>6.92936074964311</v>
+        <v>13.44493616428356</v>
       </c>
       <c r="R3">
-        <v>62.36424674678798</v>
+        <v>121.004425478552</v>
       </c>
       <c r="S3">
-        <v>0.03396099592888147</v>
+        <v>0.07784131542856766</v>
       </c>
       <c r="T3">
-        <v>0.03396099592888146</v>
+        <v>0.07784131542856765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H4">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I4">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J4">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.371955333333334</v>
+        <v>3.355234666666667</v>
       </c>
       <c r="N4">
-        <v>7.115866</v>
+        <v>10.065704</v>
       </c>
       <c r="O4">
-        <v>0.08722431247720219</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="P4">
-        <v>0.08722431247720218</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="Q4">
-        <v>2.924607484919778</v>
+        <v>8.026931443969778</v>
       </c>
       <c r="R4">
-        <v>26.321467364278</v>
+        <v>72.24238299572801</v>
       </c>
       <c r="S4">
-        <v>0.01433358522920781</v>
+        <v>0.04647302856769159</v>
       </c>
       <c r="T4">
-        <v>0.01433358522920781</v>
+        <v>0.04647302856769158</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H5">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I5">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J5">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.583231666666667</v>
+        <v>1.012758666666667</v>
       </c>
       <c r="N5">
-        <v>7.749695</v>
+        <v>3.038276</v>
       </c>
       <c r="O5">
-        <v>0.09499361262325785</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="P5">
-        <v>0.09499361262325784</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="Q5">
-        <v>3.185110006687222</v>
+        <v>2.422883998959111</v>
       </c>
       <c r="R5">
-        <v>28.665990060185</v>
+        <v>21.805955990632</v>
       </c>
       <c r="S5">
-        <v>0.01561031556564803</v>
+        <v>0.01402762164916947</v>
       </c>
       <c r="T5">
-        <v>0.01561031556564803</v>
+        <v>0.01402762164916947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H6">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I6">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J6">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.866195333333332</v>
+        <v>12.86621566666667</v>
       </c>
       <c r="N6">
-        <v>29.598586</v>
+        <v>38.598647</v>
       </c>
       <c r="O6">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610143</v>
       </c>
       <c r="P6">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610142</v>
       </c>
       <c r="Q6">
-        <v>12.16496293755978</v>
+        <v>30.78062828978378</v>
       </c>
       <c r="R6">
-        <v>109.484666438038</v>
+        <v>277.025654608054</v>
       </c>
       <c r="S6">
-        <v>0.0596208325304379</v>
+        <v>0.1782087000278613</v>
       </c>
       <c r="T6">
-        <v>0.05962083253043789</v>
+        <v>0.1782087000278612</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H7">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I7">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J7">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.306061</v>
+        <v>1.894313</v>
       </c>
       <c r="N7">
-        <v>15.918183</v>
+        <v>5.682938999999999</v>
       </c>
       <c r="O7">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="P7">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="Q7">
-        <v>6.542343145320999</v>
+        <v>4.531879911555333</v>
       </c>
       <c r="R7">
-        <v>58.88108830788899</v>
+        <v>40.786919203998</v>
       </c>
       <c r="S7">
-        <v>0.03206421154145214</v>
+        <v>0.02623794485665867</v>
       </c>
       <c r="T7">
-        <v>0.03206421154145213</v>
+        <v>0.02623794485665867</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I8">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J8">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.446352</v>
+        <v>3.086228</v>
       </c>
       <c r="N8">
-        <v>4.339055999999999</v>
+        <v>9.258683999999999</v>
       </c>
       <c r="O8">
-        <v>0.05318694539780245</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="P8">
-        <v>0.05318694539780244</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="Q8">
-        <v>3.122850905061332</v>
+        <v>6.663543800558664</v>
       </c>
       <c r="R8">
-        <v>28.10565814555199</v>
+        <v>59.97189420502799</v>
       </c>
       <c r="S8">
-        <v>0.01530518192154363</v>
+        <v>0.03857950744528534</v>
       </c>
       <c r="T8">
-        <v>0.01530518192154362</v>
+        <v>0.03857950744528533</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I9">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J9">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.619945333333333</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N9">
         <v>16.859836</v>
       </c>
       <c r="O9">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="P9">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="Q9">
         <v>12.13414948131244</v>
@@ -1013,10 +1013,10 @@
         <v>109.207345331812</v>
       </c>
       <c r="S9">
-        <v>0.05946981489692468</v>
+        <v>0.07025233483379385</v>
       </c>
       <c r="T9">
-        <v>0.05946981489692466</v>
+        <v>0.07025233483379385</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I10">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J10">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.371955333333334</v>
+        <v>3.355234666666667</v>
       </c>
       <c r="N10">
-        <v>7.115866</v>
+        <v>10.065704</v>
       </c>
       <c r="O10">
-        <v>0.08722431247720219</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="P10">
-        <v>0.08722431247720218</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="Q10">
-        <v>5.121341733869111</v>
+        <v>7.244362102374221</v>
       </c>
       <c r="R10">
-        <v>46.092075604822</v>
+        <v>65.199258921368</v>
       </c>
       <c r="S10">
-        <v>0.02509984283662783</v>
+        <v>0.0419422352474756</v>
       </c>
       <c r="T10">
-        <v>0.02509984283662782</v>
+        <v>0.0419422352474756</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I11">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J11">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.583231666666667</v>
+        <v>1.012758666666667</v>
       </c>
       <c r="N11">
-        <v>7.749695</v>
+        <v>3.038276</v>
       </c>
       <c r="O11">
-        <v>0.09499361262325785</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="P11">
-        <v>0.09499361262325784</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="Q11">
-        <v>5.577513183673888</v>
+        <v>2.186669855476888</v>
       </c>
       <c r="R11">
-        <v>50.19761865306499</v>
+        <v>19.680028699292</v>
       </c>
       <c r="S11">
-        <v>0.02733555220570489</v>
+        <v>0.01266002723095763</v>
       </c>
       <c r="T11">
-        <v>0.02733555220570489</v>
+        <v>0.01266002723095763</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I12">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J12">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.866195333333332</v>
+        <v>12.86621566666667</v>
       </c>
       <c r="N12">
-        <v>29.598586</v>
+        <v>38.598647</v>
       </c>
       <c r="O12">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610143</v>
       </c>
       <c r="P12">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610142</v>
       </c>
       <c r="Q12">
-        <v>21.3023226892291</v>
+        <v>27.77973359138322</v>
       </c>
       <c r="R12">
-        <v>191.720904203062</v>
+        <v>250.017602322449</v>
       </c>
       <c r="S12">
-        <v>0.1044032949449037</v>
+        <v>0.160834605578335</v>
       </c>
       <c r="T12">
-        <v>0.1044032949449037</v>
+        <v>0.1608346055783349</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I13">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J13">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.306061</v>
+        <v>1.894313</v>
       </c>
       <c r="N13">
-        <v>15.918183</v>
+        <v>5.682938999999999</v>
       </c>
       <c r="O13">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="P13">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="Q13">
-        <v>11.456434807129</v>
+        <v>4.090053504623665</v>
       </c>
       <c r="R13">
-        <v>103.107913264161</v>
+        <v>36.81048154161299</v>
       </c>
       <c r="S13">
-        <v>0.0561483158261666</v>
+        <v>0.02367992983253369</v>
       </c>
       <c r="T13">
-        <v>0.05614831582616658</v>
+        <v>0.02367992983253369</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.6462516666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H14">
-        <v>1.938755</v>
+        <v>0.290273</v>
       </c>
       <c r="I14">
-        <v>0.08613067955120558</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J14">
-        <v>0.08613067955120557</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.446352</v>
+        <v>3.086228</v>
       </c>
       <c r="N14">
-        <v>4.339055999999999</v>
+        <v>9.258683999999999</v>
       </c>
       <c r="O14">
-        <v>0.05318694539780245</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="P14">
-        <v>0.05318694539780244</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="Q14">
-        <v>0.9347073905866666</v>
+        <v>0.2986162200813333</v>
       </c>
       <c r="R14">
-        <v>8.412366515279999</v>
+        <v>2.687545980732</v>
       </c>
       <c r="S14">
-        <v>0.004581027750365591</v>
+        <v>0.001728879861935461</v>
       </c>
       <c r="T14">
-        <v>0.00458102775036559</v>
+        <v>0.001728879861935461</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.6462516666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H15">
-        <v>1.938755</v>
+        <v>0.290273</v>
       </c>
       <c r="I15">
-        <v>0.08613067955120558</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J15">
-        <v>0.08613067955120557</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.619945333333333</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N15">
         <v>16.859836</v>
       </c>
       <c r="O15">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="P15">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="Q15">
-        <v>3.631899038242222</v>
+        <v>0.5437727972475557</v>
       </c>
       <c r="R15">
-        <v>32.68709134418</v>
+        <v>4.893955175228</v>
       </c>
       <c r="S15">
-        <v>0.01780004143357744</v>
+        <v>0.003148247735416234</v>
       </c>
       <c r="T15">
-        <v>0.01780004143357744</v>
+        <v>0.003148247735416234</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.6462516666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H16">
-        <v>1.938755</v>
+        <v>0.290273</v>
       </c>
       <c r="I16">
-        <v>0.08613067955120558</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J16">
-        <v>0.08613067955120557</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.371955333333334</v>
+        <v>3.355234666666667</v>
       </c>
       <c r="N16">
-        <v>7.115866</v>
+        <v>10.065704</v>
       </c>
       <c r="O16">
-        <v>0.08722431247720219</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="P16">
-        <v>0.08722431247720218</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="Q16">
-        <v>1.532880087425556</v>
+        <v>0.3246446774657778</v>
       </c>
       <c r="R16">
-        <v>13.79592078683</v>
+        <v>2.921802097192</v>
       </c>
       <c r="S16">
-        <v>0.007512689307048125</v>
+        <v>0.001879575211963516</v>
       </c>
       <c r="T16">
-        <v>0.007512689307048123</v>
+        <v>0.001879575211963516</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.6462516666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H17">
-        <v>1.938755</v>
+        <v>0.290273</v>
       </c>
       <c r="I17">
-        <v>0.08613067955120558</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J17">
-        <v>0.08613067955120557</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.583231666666667</v>
+        <v>1.012758666666667</v>
       </c>
       <c r="N17">
-        <v>7.749695</v>
+        <v>3.038276</v>
       </c>
       <c r="O17">
-        <v>0.09499361262325785</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="P17">
-        <v>0.09499361262325784</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="Q17">
-        <v>1.669417769969445</v>
+        <v>0.09799216548311111</v>
       </c>
       <c r="R17">
-        <v>15.024759929725</v>
+        <v>0.881929489348</v>
       </c>
       <c r="S17">
-        <v>0.008181864408265179</v>
+        <v>0.000567339180319992</v>
       </c>
       <c r="T17">
-        <v>0.008181864408265177</v>
+        <v>0.0005673391803199919</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.6462516666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H18">
-        <v>1.938755</v>
+        <v>0.290273</v>
       </c>
       <c r="I18">
-        <v>0.08613067955120558</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J18">
-        <v>0.08613067955120557</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.866195333333332</v>
+        <v>12.86621566666667</v>
       </c>
       <c r="N18">
-        <v>29.598586</v>
+        <v>38.598647</v>
       </c>
       <c r="O18">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610143</v>
       </c>
       <c r="P18">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610142</v>
       </c>
       <c r="Q18">
-        <v>6.376045177825555</v>
+        <v>1.244905006736778</v>
       </c>
       <c r="R18">
-        <v>57.38440660043</v>
+        <v>11.204145060631</v>
       </c>
       <c r="S18">
-        <v>0.03124918042947187</v>
+        <v>0.007207549528232696</v>
       </c>
       <c r="T18">
-        <v>0.03124918042947186</v>
+        <v>0.007207549528232694</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.6462516666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H19">
-        <v>1.938755</v>
+        <v>0.290273</v>
       </c>
       <c r="I19">
-        <v>0.08613067955120558</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J19">
-        <v>0.08613067955120557</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.306061</v>
+        <v>1.894313</v>
       </c>
       <c r="N19">
-        <v>15.918183</v>
+        <v>5.682938999999999</v>
       </c>
       <c r="O19">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="P19">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="Q19">
-        <v>3.429050764685</v>
+        <v>0.1832893058163333</v>
       </c>
       <c r="R19">
-        <v>30.861456882165</v>
+        <v>1.649603752347</v>
       </c>
       <c r="S19">
-        <v>0.01680587622247738</v>
+        <v>0.001061178758634342</v>
       </c>
       <c r="T19">
-        <v>0.01680587622247737</v>
+        <v>0.001061178758634342</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.056275666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H20">
-        <v>6.168827</v>
+        <v>2.585138</v>
       </c>
       <c r="I20">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J20">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.446352</v>
+        <v>3.086228</v>
       </c>
       <c r="N20">
-        <v>4.339055999999999</v>
+        <v>9.258683999999999</v>
       </c>
       <c r="O20">
-        <v>0.05318694539780245</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="P20">
-        <v>0.05318694539780244</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="Q20">
-        <v>2.974098423034666</v>
+        <v>2.659441759821333</v>
       </c>
       <c r="R20">
-        <v>26.766885807312</v>
+        <v>23.934975838392</v>
       </c>
       <c r="S20">
-        <v>0.01457614173745755</v>
+        <v>0.01539720548767579</v>
       </c>
       <c r="T20">
-        <v>0.01457614173745755</v>
+        <v>0.01539720548767579</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.056275666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H21">
-        <v>6.168827</v>
+        <v>2.585138</v>
       </c>
       <c r="I21">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J21">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.619945333333333</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N21">
         <v>16.859836</v>
       </c>
       <c r="O21">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="P21">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="Q21">
-        <v>11.55615683693022</v>
+        <v>4.842778079707556</v>
       </c>
       <c r="R21">
-        <v>104.005411532372</v>
+        <v>43.58500271736801</v>
       </c>
       <c r="S21">
-        <v>0.05663705635656452</v>
+        <v>0.02803793275378163</v>
       </c>
       <c r="T21">
-        <v>0.05663705635656451</v>
+        <v>0.02803793275378162</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.056275666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H22">
-        <v>6.168827</v>
+        <v>2.585138</v>
       </c>
       <c r="I22">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J22">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.371955333333334</v>
+        <v>3.355234666666667</v>
       </c>
       <c r="N22">
-        <v>7.115866</v>
+        <v>10.065704</v>
       </c>
       <c r="O22">
-        <v>0.08722431247720219</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="P22">
-        <v>0.08722431247720218</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="Q22">
-        <v>4.877394034353556</v>
+        <v>2.891248211905778</v>
       </c>
       <c r="R22">
-        <v>43.89654630918201</v>
+        <v>26.021233907152</v>
       </c>
       <c r="S22">
-        <v>0.02390424815922061</v>
+        <v>0.01673928096758893</v>
       </c>
       <c r="T22">
-        <v>0.02390424815922061</v>
+        <v>0.01673928096758893</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.056275666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H23">
-        <v>6.168827</v>
+        <v>2.585138</v>
       </c>
       <c r="I23">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J23">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.583231666666667</v>
+        <v>1.012758666666667</v>
       </c>
       <c r="N23">
-        <v>7.749695</v>
+        <v>3.038276</v>
       </c>
       <c r="O23">
-        <v>0.09499361262325785</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="P23">
-        <v>0.09499361262325784</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="Q23">
-        <v>5.311836417529444</v>
+        <v>0.872706971343111</v>
       </c>
       <c r="R23">
-        <v>47.806527757765</v>
+        <v>7.854362742088</v>
       </c>
       <c r="S23">
-        <v>0.02603346274905559</v>
+        <v>0.00505265758073973</v>
       </c>
       <c r="T23">
-        <v>0.02603346274905558</v>
+        <v>0.005052657580739729</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.056275666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H24">
-        <v>6.168827</v>
+        <v>2.585138</v>
       </c>
       <c r="I24">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J24">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.866195333333332</v>
+        <v>12.86621566666667</v>
       </c>
       <c r="N24">
-        <v>29.598586</v>
+        <v>38.598647</v>
       </c>
       <c r="O24">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610143</v>
       </c>
       <c r="P24">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610142</v>
       </c>
       <c r="Q24">
-        <v>20.28761738651355</v>
+        <v>11.08698101203178</v>
       </c>
       <c r="R24">
-        <v>182.588556478622</v>
+        <v>99.78282910828601</v>
       </c>
       <c r="S24">
-        <v>0.09943019513099779</v>
+        <v>0.0641896083077531</v>
       </c>
       <c r="T24">
-        <v>0.09943019513099779</v>
+        <v>0.06418960830775308</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.056275666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H25">
-        <v>6.168827</v>
+        <v>2.585138</v>
       </c>
       <c r="I25">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J25">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.306061</v>
+        <v>1.894313</v>
       </c>
       <c r="N25">
-        <v>15.918183</v>
+        <v>5.682938999999999</v>
       </c>
       <c r="O25">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="P25">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="Q25">
-        <v>10.910724120149</v>
+        <v>1.632353506731333</v>
       </c>
       <c r="R25">
-        <v>98.196517081341</v>
+        <v>14.691181560582</v>
       </c>
       <c r="S25">
-        <v>0.05347377208563045</v>
+        <v>0.009450736147483461</v>
       </c>
       <c r="T25">
-        <v>0.05347377208563044</v>
+        <v>0.009450736147483459</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.09591500000000001</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H26">
-        <v>0.287745</v>
+        <v>0.665872</v>
       </c>
       <c r="I26">
-        <v>0.01278329257047005</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J26">
-        <v>0.01278329257047004</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.446352</v>
+        <v>3.086228</v>
       </c>
       <c r="N26">
-        <v>4.339055999999999</v>
+        <v>9.258683999999999</v>
       </c>
       <c r="O26">
-        <v>0.05318694539780245</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="P26">
-        <v>0.05318694539780244</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="Q26">
-        <v>0.13872685208</v>
+        <v>0.6850109369386667</v>
       </c>
       <c r="R26">
-        <v>1.24854166872</v>
+        <v>6.165098432448</v>
       </c>
       <c r="S26">
-        <v>0.000679904283949724</v>
+        <v>0.003965965458126279</v>
       </c>
       <c r="T26">
-        <v>0.0006799042839497238</v>
+        <v>0.003965965458126278</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.09591500000000001</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H27">
-        <v>0.287745</v>
+        <v>0.665872</v>
       </c>
       <c r="I27">
-        <v>0.01278329257047005</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J27">
-        <v>0.01278329257047004</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>5.619945333333333</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N27">
         <v>16.859836</v>
       </c>
       <c r="O27">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="P27">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="Q27">
-        <v>0.5390370566466667</v>
+        <v>1.247388079665778</v>
       </c>
       <c r="R27">
-        <v>4.85133350982</v>
+        <v>11.226492716992</v>
       </c>
       <c r="S27">
-        <v>0.00264183608671789</v>
+        <v>0.007221925622007829</v>
       </c>
       <c r="T27">
-        <v>0.002641836086717889</v>
+        <v>0.007221925622007829</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.09591500000000001</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H28">
-        <v>0.287745</v>
+        <v>0.665872</v>
       </c>
       <c r="I28">
-        <v>0.01278329257047005</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J28">
-        <v>0.01278329257047004</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.371955333333334</v>
+        <v>3.355234666666667</v>
       </c>
       <c r="N28">
-        <v>7.115866</v>
+        <v>10.065704</v>
       </c>
       <c r="O28">
-        <v>0.08722431247720219</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="P28">
-        <v>0.08722431247720218</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="Q28">
-        <v>0.2275060957966667</v>
+        <v>0.7447189393208888</v>
       </c>
       <c r="R28">
-        <v>2.04755486217</v>
+        <v>6.702470453888</v>
       </c>
       <c r="S28">
-        <v>0.001115013905654177</v>
+        <v>0.00431165318696734</v>
       </c>
       <c r="T28">
-        <v>0.001115013905654176</v>
+        <v>0.00431165318696734</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.09591500000000001</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H29">
-        <v>0.287745</v>
+        <v>0.665872</v>
       </c>
       <c r="I29">
-        <v>0.01278329257047005</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J29">
-        <v>0.01278329257047004</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.583231666666667</v>
+        <v>1.012758666666667</v>
       </c>
       <c r="N29">
-        <v>7.749695</v>
+        <v>3.038276</v>
       </c>
       <c r="O29">
-        <v>0.09499361262325785</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="P29">
-        <v>0.09499361262325784</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="Q29">
-        <v>0.2477706653083334</v>
+        <v>0.2247892129635556</v>
       </c>
       <c r="R29">
-        <v>2.229935987775</v>
+        <v>2.023102916672</v>
       </c>
       <c r="S29">
-        <v>0.001214331142489002</v>
+        <v>0.001301448204545492</v>
       </c>
       <c r="T29">
-        <v>0.001214331142489001</v>
+        <v>0.001301448204545492</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.09591500000000001</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H30">
-        <v>0.287745</v>
+        <v>0.665872</v>
       </c>
       <c r="I30">
-        <v>0.01278329257047005</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J30">
-        <v>0.01278329257047004</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>9.866195333333332</v>
+        <v>12.86621566666667</v>
       </c>
       <c r="N30">
-        <v>29.598586</v>
+        <v>38.598647</v>
       </c>
       <c r="O30">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610143</v>
       </c>
       <c r="P30">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610142</v>
       </c>
       <c r="Q30">
-        <v>0.9463161253966667</v>
+        <v>2.855750919464889</v>
       </c>
       <c r="R30">
-        <v>8.516845128570001</v>
+        <v>25.701758275184</v>
       </c>
       <c r="S30">
-        <v>0.004637922492877328</v>
+        <v>0.01653376448882039</v>
       </c>
       <c r="T30">
-        <v>0.004637922492877327</v>
+        <v>0.01653376448882039</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.09591500000000001</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H31">
-        <v>0.287745</v>
+        <v>0.665872</v>
       </c>
       <c r="I31">
-        <v>0.01278329257047005</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J31">
-        <v>0.01278329257047004</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.306061</v>
+        <v>1.894313</v>
       </c>
       <c r="N31">
-        <v>15.918183</v>
+        <v>5.682938999999999</v>
       </c>
       <c r="O31">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="P31">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="Q31">
-        <v>0.5089308408150001</v>
+        <v>0.4204566619786666</v>
       </c>
       <c r="R31">
-        <v>4.580377567335</v>
+        <v>3.784109957808</v>
       </c>
       <c r="S31">
-        <v>0.002494284658781927</v>
+        <v>0.002434291933350214</v>
       </c>
       <c r="T31">
-        <v>0.002494284658781926</v>
+        <v>0.002434291933350214</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>1.312594</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H32">
-        <v>3.937782</v>
+        <v>1.420139</v>
       </c>
       <c r="I32">
-        <v>0.1749389889823652</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J32">
-        <v>0.1749389889823652</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.446352</v>
+        <v>3.086228</v>
       </c>
       <c r="N32">
-        <v>4.339055999999999</v>
+        <v>9.258683999999999</v>
       </c>
       <c r="O32">
-        <v>0.05318694539780245</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="P32">
-        <v>0.05318694539780244</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="Q32">
-        <v>1.898472957088</v>
+        <v>1.460957581897333</v>
       </c>
       <c r="R32">
-        <v>17.086256613792</v>
+        <v>13.148618237076</v>
       </c>
       <c r="S32">
-        <v>0.009304470454951821</v>
+        <v>0.008458415761194339</v>
       </c>
       <c r="T32">
-        <v>0.009304470454951818</v>
+        <v>0.008458415761194335</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1.312594</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H33">
-        <v>3.937782</v>
+        <v>1.420139</v>
       </c>
       <c r="I33">
-        <v>0.1749389889823652</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J33">
-        <v>0.1749389889823652</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>5.619945333333333</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N33">
         <v>16.859836</v>
       </c>
       <c r="O33">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="P33">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="Q33">
-        <v>7.376706524861333</v>
+        <v>2.660367848578223</v>
       </c>
       <c r="R33">
-        <v>66.390358723752</v>
+        <v>23.943310637204</v>
       </c>
       <c r="S33">
-        <v>0.03615345041348466</v>
+        <v>0.01540256720647899</v>
       </c>
       <c r="T33">
-        <v>0.03615345041348465</v>
+        <v>0.01540256720647899</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1.312594</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H34">
-        <v>3.937782</v>
+        <v>1.420139</v>
       </c>
       <c r="I34">
-        <v>0.1749389889823652</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J34">
-        <v>0.1749389889823652</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.371955333333334</v>
+        <v>3.355234666666667</v>
       </c>
       <c r="N34">
-        <v>7.115866</v>
+        <v>10.065704</v>
       </c>
       <c r="O34">
-        <v>0.08722431247720219</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="P34">
-        <v>0.08722431247720218</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="Q34">
-        <v>3.113414338801334</v>
+        <v>1.588299868095111</v>
       </c>
       <c r="R34">
-        <v>28.020729049212</v>
+        <v>14.294698812856</v>
       </c>
       <c r="S34">
-        <v>0.01525893303944365</v>
+        <v>0.009195681520302118</v>
       </c>
       <c r="T34">
-        <v>0.01525893303944365</v>
+        <v>0.009195681520302116</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>1.312594</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H35">
-        <v>3.937782</v>
+        <v>1.420139</v>
       </c>
       <c r="I35">
-        <v>0.1749389889823652</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J35">
-        <v>0.1749389889823652</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.583231666666667</v>
+        <v>1.012758666666667</v>
       </c>
       <c r="N35">
-        <v>7.749695</v>
+        <v>3.038276</v>
       </c>
       <c r="O35">
-        <v>0.09499361262325785</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="P35">
-        <v>0.09499361262325784</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="Q35">
-        <v>3.390734386276667</v>
+        <v>0.4794193600404444</v>
       </c>
       <c r="R35">
-        <v>30.51660947649</v>
+        <v>4.314774240364</v>
       </c>
       <c r="S35">
-        <v>0.01661808655209517</v>
+        <v>0.002775664619859419</v>
       </c>
       <c r="T35">
-        <v>0.01661808655209517</v>
+        <v>0.002775664619859419</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>1.312594</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H36">
-        <v>3.937782</v>
+        <v>1.420139</v>
       </c>
       <c r="I36">
-        <v>0.1749389889823652</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J36">
-        <v>0.1749389889823652</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>9.866195333333332</v>
+        <v>12.86621566666667</v>
       </c>
       <c r="N36">
-        <v>29.598586</v>
+        <v>38.598647</v>
       </c>
       <c r="O36">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610143</v>
       </c>
       <c r="P36">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610142</v>
       </c>
       <c r="Q36">
-        <v>12.95030879736133</v>
+        <v>6.090604883548112</v>
       </c>
       <c r="R36">
-        <v>116.552779176252</v>
+        <v>54.815443951933</v>
       </c>
       <c r="S36">
-        <v>0.06346983513127062</v>
+        <v>0.03526239843001193</v>
       </c>
       <c r="T36">
-        <v>0.06346983513127062</v>
+        <v>0.03526239843001192</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>1.312594</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H37">
-        <v>3.937782</v>
+        <v>1.420139</v>
       </c>
       <c r="I37">
-        <v>0.1749389889823652</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J37">
-        <v>0.1749389889823652</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>5.306061</v>
+        <v>1.894313</v>
       </c>
       <c r="N37">
-        <v>15.918183</v>
+        <v>5.682938999999999</v>
       </c>
       <c r="O37">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="P37">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="Q37">
-        <v>6.964703832234</v>
+        <v>0.8967292565023333</v>
       </c>
       <c r="R37">
-        <v>62.682334490106</v>
+        <v>8.070563308520999</v>
       </c>
       <c r="S37">
-        <v>0.03413421339111926</v>
+        <v>0.005191737919504109</v>
       </c>
       <c r="T37">
-        <v>0.03413421339111924</v>
+        <v>0.005191737919504108</v>
       </c>
     </row>
   </sheetData>
